--- a/src/test/java/com/qa/orangehrm/testdata/Testdata.xlsx
+++ b/src/test/java/com/qa/orangehrm/testdata/Testdata.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2520" windowWidth="14385" windowHeight="2625"/>
+    <workbookView xWindow="0" yWindow="2520" windowWidth="12585" windowHeight="1455"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
@@ -12,6 +12,7 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519"/>
+  <oleSize ref="A1:K3"/>
 </workbook>
 </file>
 
@@ -27,7 +28,7 @@
     <t>John Smith</t>
   </si>
   <si>
-    <t>Diptee_333</t>
+    <t>Ravi2020</t>
   </si>
 </sst>
 </file>
@@ -51,7 +52,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -59,12 +60,28 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -397,16 +414,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
